--- a/Assets/JJData/Xlsx/DataBaseName.xlsx
+++ b/Assets/JJData/Xlsx/DataBaseName.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\2_UNITIYGAME\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134AC949-2434-4637-93FF-1DED8ADE7C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EE00E6-7389-4886-80B4-98F25895C6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18900" windowHeight="10965" xr2:uid="{342168C5-6158-4493-8274-8303BF58C521}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{342168C5-6158-4493-8274-8303BF58C521}"/>
   </bookViews>
   <sheets>
     <sheet name="TestClass" sheetId="1" r:id="rId1"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hwr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +73,10 @@
   </si>
   <si>
     <t>Test34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>""</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -470,13 +470,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2.5</v>
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>3.9</v>
@@ -506,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2.2999999999999998</v>
